--- a/age_gender/performance.xlsx
+++ b/age_gender/performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="247">
   <si>
     <t>FGNET</t>
   </si>
@@ -704,6 +704,60 @@
   </si>
   <si>
     <t>Age group number</t>
+  </si>
+  <si>
+    <t>Align 0</t>
+  </si>
+  <si>
+    <t>Align 1</t>
+  </si>
+  <si>
+    <t>Align 2</t>
+  </si>
+  <si>
+    <t>Cross MAE</t>
+  </si>
+  <si>
+    <t>Cross Accuracy</t>
+  </si>
+  <si>
+    <t>Acc Drop</t>
+  </si>
+  <si>
+    <t>MAE Drop</t>
+  </si>
+  <si>
+    <t>Accuracy of Gender</t>
+  </si>
+  <si>
+    <t>FG-NET</t>
+  </si>
+  <si>
+    <t>Data #</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Exp 1 Dataset Comparison</t>
+  </si>
+  <si>
+    <t>Exp 2 Alignment Comparison</t>
+  </si>
+  <si>
+    <t>973/1002</t>
+  </si>
+  <si>
+    <t>1557/1690</t>
+  </si>
+  <si>
+    <t>54898/55608</t>
+  </si>
+  <si>
+    <t>7779/8000</t>
+  </si>
+  <si>
+    <t>Feature HOG 6 orient</t>
   </si>
 </sst>
 </file>
@@ -772,9 +826,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -782,17 +833,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,19 +1169,19 @@
     <col min="15" max="15" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>202</v>
       </c>
@@ -1146,8 +1200,24 @@
       <c r="G5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>193</v>
       </c>
@@ -1166,8 +1236,26 @@
       <c r="G6">
         <v>7.2954999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J6" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="M6" s="3">
+        <v>3.62</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>194</v>
       </c>
@@ -1186,8 +1274,26 @@
       <c r="G7">
         <v>8.3998000000000008</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -1206,8 +1312,26 @@
       <c r="G8">
         <v>8.0361999999999991</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5.2629279999999996</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5.1403840000000001</v>
+      </c>
+      <c r="M8" s="3">
+        <v>4.5921529999999997</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4.3099119999999997</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2.848757</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>196</v>
       </c>
@@ -1226,8 +1350,26 @@
       <c r="G9">
         <v>10.5662</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>197</v>
       </c>
@@ -1246,8 +1388,26 @@
       <c r="G10">
         <v>8.9339999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J10" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>198</v>
       </c>
@@ -1266,8 +1426,22 @@
       <c r="G11" s="1">
         <v>8.3384999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>199</v>
       </c>
@@ -1286,13 +1460,51 @@
       <c r="G12" s="1">
         <v>-0.59560000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>193</v>
       </c>
@@ -1311,8 +1523,18 @@
       <c r="G15">
         <v>0.75739999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>194</v>
       </c>
@@ -1330,6 +1552,14 @@
       </c>
       <c r="G16">
         <v>0.67549999999999999</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -1351,21 +1581,23 @@
       <c r="G17">
         <v>0.68149999999999999</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>208</v>
+      <c r="J17" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="2">
+        <v>9.8339999999999996</v>
+      </c>
+      <c r="L17" s="2">
+        <v>9.7619000000000007</v>
+      </c>
+      <c r="M17" s="2">
+        <v>9.8264999999999993</v>
+      </c>
+      <c r="N17" s="2">
+        <v>10.0434</v>
+      </c>
+      <c r="O17" s="2">
+        <v>10.1061</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,24 +1619,6 @@
       <c r="G18">
         <v>0.55189999999999995</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="L18" s="4">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="M18" s="4">
-        <v>3.62</v>
-      </c>
-      <c r="N18" s="4">
-        <v>2.95</v>
-      </c>
-      <c r="O18" s="4">
-        <v>2.84</v>
-      </c>
     </row>
     <row r="19" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -1425,24 +1639,6 @@
       <c r="G19">
         <v>0.65269999999999995</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0.89700000000000002</v>
-      </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -1463,24 +1659,6 @@
       <c r="G20" s="1">
         <v>0.66669999999999996</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="K20" s="4">
-        <v>5.2629279999999996</v>
-      </c>
-      <c r="L20" s="4">
-        <v>5.1403840000000001</v>
-      </c>
-      <c r="M20" s="4">
-        <v>4.5921529999999997</v>
-      </c>
-      <c r="N20" s="4">
-        <v>4.3099119999999997</v>
-      </c>
-      <c r="O20" s="4">
-        <v>2.848757</v>
-      </c>
     </row>
     <row r="21" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -1501,236 +1679,110 @@
       <c r="G21" s="1">
         <v>-1.4E-2</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J22" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>219</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>226</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4" t="s">
-        <v>228</v>
-      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="J29" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="K29" s="3">
-        <v>9.8339999999999996</v>
-      </c>
-      <c r="L29" s="3">
-        <v>9.7619000000000007</v>
-      </c>
-      <c r="M29" s="3">
-        <v>9.8264999999999993</v>
-      </c>
-      <c r="N29" s="3">
-        <v>10.0434</v>
-      </c>
-      <c r="O29" s="3">
-        <v>10.1061</v>
-      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2788,12 +2840,182 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16">
+        <v>4.0962740000000002</v>
+      </c>
+      <c r="C16">
+        <v>7.0607920000000002</v>
+      </c>
+      <c r="D16">
+        <v>10.179871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21">
+        <v>0.680064</v>
+      </c>
+      <c r="C21">
+        <v>0.44700400000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.36642599999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/age_gender/performance.xlsx
+++ b/age_gender/performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="15600" windowHeight="5880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="252">
   <si>
     <t>FGNET</t>
   </si>
@@ -758,6 +758,21 @@
   </si>
   <si>
     <t>Feature HOG 6 orient</t>
+  </si>
+  <si>
+    <t>Align 2.1</t>
+  </si>
+  <si>
+    <t>Align 2.2</t>
+  </si>
+  <si>
+    <t>Align l2</t>
+  </si>
+  <si>
+    <t>Align l1</t>
+  </si>
+  <si>
+    <t>Align l0</t>
   </si>
 </sst>
 </file>
@@ -2840,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2856,7 +2871,7 @@
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>246</v>
       </c>
@@ -2876,7 +2891,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -2893,7 +2908,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>240</v>
       </c>
@@ -2901,54 +2916,75 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="B15">
+        <v>5.004651</v>
+      </c>
+      <c r="C15">
+        <v>11.678654999999999</v>
+      </c>
+      <c r="D15">
+        <v>11.845544</v>
+      </c>
+      <c r="I15" t="s">
+        <v>247</v>
+      </c>
+      <c r="J15">
+        <v>5.1379999999999999</v>
+      </c>
+      <c r="K15">
+        <v>9.5967000000000002</v>
+      </c>
+      <c r="L15">
+        <v>12.128399999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="B16">
         <v>4.0962740000000002</v>
@@ -2959,58 +2995,116 @@
       <c r="D16">
         <v>10.179871</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>248</v>
+      </c>
+      <c r="J16">
+        <v>4.1007999999999996</v>
+      </c>
+      <c r="K16">
+        <v>7.0898000000000003</v>
+      </c>
+      <c r="L16">
+        <v>10.397500000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17">
+        <v>3.8642110000000001</v>
+      </c>
+      <c r="C17">
+        <v>6.7567539999999999</v>
+      </c>
+      <c r="D17">
+        <v>9.9262250000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>247</v>
+      </c>
+      <c r="J19">
+        <v>0.57820000000000005</v>
+      </c>
+      <c r="K19">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="L19">
+        <v>0.31059999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22">
+        <v>0.58441600000000005</v>
+      </c>
+      <c r="C22">
+        <v>0.28919499999999998</v>
+      </c>
+      <c r="D22">
+        <v>0.31924000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23">
+        <v>0.680064</v>
+      </c>
+      <c r="C23">
+        <v>0.44700400000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.36642599999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24">
+        <v>0.71096400000000004</v>
+      </c>
+      <c r="C24">
+        <v>0.47380499999999998</v>
+      </c>
+      <c r="D24">
+        <v>0.37480599999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>230</v>
       </c>
-      <c r="B21">
-        <v>0.680064</v>
-      </c>
-      <c r="C21">
-        <v>0.44700400000000001</v>
-      </c>
-      <c r="D21">
-        <v>0.36642599999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>231</v>
       </c>
     </row>

--- a/age_gender/performance.xlsx
+++ b/age_gender/performance.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="15600" windowHeight="5880" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="15600" windowHeight="5880" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="394">
   <si>
     <t>FGNET</t>
   </si>
@@ -757,15 +759,6 @@
     <t>7779/8000</t>
   </si>
   <si>
-    <t>Feature HOG 6 orient</t>
-  </si>
-  <si>
-    <t>Align 2.1</t>
-  </si>
-  <si>
-    <t>Align 2.2</t>
-  </si>
-  <si>
     <t>Align l2</t>
   </si>
   <si>
@@ -773,6 +766,441 @@
   </si>
   <si>
     <t>Align l0</t>
+  </si>
+  <si>
+    <t>Feature HOG 8 orient 0.5/0.5</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Train on WebFace, Test on WebFace</t>
+  </si>
+  <si>
+    <t>Train on Yamaha, Test on Yamaha</t>
+  </si>
+  <si>
+    <t>Train on Morph2, Test on Morph2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Split Acc=0.777646, MAE=4.737304, AgeACC=0.643221, GenderACC=0.955364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0    4.6745    0.6474    0.9586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0    5.6194    0.5838    0.9099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0   10.1279    0.2917    0.6250</t>
+  </si>
+  <si>
+    <t>Split Acc=0.708804, MAE=6.236441, AgeACC=0.632993, GenderACC=0.893322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0    5.8216    0.6531    0.8575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0    7.1550    0.5822    0.8290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0   12.8751    0.4280    0.7627</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Split Acc=0.833192, MAE=3.678508, AgeACC=0.750322, GenderACC=0.979272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0    3.6424    0.7538    0.9807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0    4.1825    0.7016    0.9584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0    6.3046    0.5208    0.9375</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Split Acc=0.659148, MAE=7.105751, AgeACC=0.562263, GenderACC=0.862581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0    6.8218    0.5760    0.8189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0    7.8201    0.5253    0.7906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0   10.2947    0.4479    0.7838</t>
+  </si>
+  <si>
+    <t>View 1</t>
+  </si>
+  <si>
+    <t>View 2</t>
+  </si>
+  <si>
+    <t>View 3</t>
+  </si>
+  <si>
+    <t>View 4</t>
+  </si>
+  <si>
+    <t>Split Acc</t>
+  </si>
+  <si>
+    <t>Age Acc</t>
+  </si>
+  <si>
+    <t>Gender Acc</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Align Lv0</t>
+  </si>
+  <si>
+    <t>Align Lv1</t>
+  </si>
+  <si>
+    <t>Align Lv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> split acc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> age acc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gender acc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.7257    5.4650    0.5750    0.9375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.7299    5.4053    0.5780    0.9407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.6693    6.2602    0.5345    0.8920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.4938    9.9461    0.3688    0.8063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.6594    7.7447    0.5378    0.8703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.6697    7.2597    0.5539    0.8775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.6383    8.7709    0.5050    0.8524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5452   12.8573    0.3564    0.8202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5004   11.9436    0.4057    0.7265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5025   11.6512    0.4235    0.7171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5010   12.2384    0.3838    0.7434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.4513   14.3309    0.3076    0.7051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.2167   19.6779    0.2833    0.3833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.7771    4.7169    0.6446    0.9517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.7823    4.6456    0.6492    0.9553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.7072    5.6552    0.5824    0.9025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.4437   10.6763    0.3312    0.7063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.7099    6.0929    0.6461    0.8756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.7217    5.6272    0.6686    0.8814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.6881    6.9151    0.5938    0.8695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5543   12.5977    0.4585    0.7535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5256   10.9276    0.4300    0.7534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5335   10.4289    0.4548    0.7510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5193   11.4867    0.3997    0.7597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.4388   14.2855    0.2897    0.7252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.2833   21.4668    0.2000    0.5500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.7749    4.0157    0.7211    0.9649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.7783    3.9686    0.7251    0.9668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.7307    4.6408    0.6675    0.9379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5000    7.6393    0.4250    0.8750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.6139    7.8816    0.5509    0.8204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.6155    7.5951    0.5648    0.8227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.6159    8.3139    0.5201    0.8187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5458   12.6182    0.4189    0.7669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5055   10.6950    0.4918    0.7432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5086   10.3473    0.5099    0.7415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5056   11.0539    0.4717    0.7489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.4334   13.6434    0.3606    0.7062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.5500   11.5775    0.3000    0.7167</t>
+  </si>
+  <si>
+    <t>fold 1,fold 2,fold 3,fold 4,fold 5,fold 6,fold 7,fold 8,fold 9,fold 10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0000    9.8770    0.3384         0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0000    9.5054    0.3499         0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0000   10.7958    0.3093         0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0000   12.4212    0.2667         0</t>
+  </si>
+  <si>
+    <t>align_name =</t>
+  </si>
+  <si>
+    <t>AlignLv1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0000    8.1235    0.4097         0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0000    7.8056    0.4221         0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0000    8.8543    0.3817         0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0000   10.8776    0.2982         0</t>
+  </si>
+  <si>
+    <t>AlignLv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0000    6.3731    0.4965         0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0000    6.1198    0.5124         0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0000    6.9668    0.4603         0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0000    8.4480    0.3567         0</t>
+  </si>
+  <si>
+    <t>AlignLv0</t>
+  </si>
+  <si>
+    <t>fold 1,3   if ~isempty(model_path)</t>
+  </si>
+  <si>
+    <t>fold 2,fold 3,fold 4,fold 5,fold 6,fold 7,fold 8,fold 9,fold 10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.9142    0.3336    0.8446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.5584    0.3398    0.8502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.7594    0.3183    0.8312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.7267    0.2933    0.8002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.0936    0.4087    0.8978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.8467    0.4160    0.9086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.6275    0.3940    0.8763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.5522    0.3244    0.7721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.7141    0.6145    0.9631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.6631    0.6189    0.9659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.4117    0.5524    0.9242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.5701    0.4375    0.8063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.2241    0.6695    0.9705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1688    0.6745    0.9732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.9707    0.6003    0.9372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.8524    0.4750    0.5938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.0353    0.3207    0.8001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.8119    0.3317    0.8026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.1124    0.3136    0.8048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.0057    0.2841    0.7645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.7863    0.2295    0.6627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.8406    0.3253    0.7978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.5267    0.3386    0.8025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.9206    0.3185    0.8028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.4097    0.2727    0.7494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16.7941    0.1820    0.6153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.5471    0.4789    0.9076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.3361    0.4899    0.9111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.0334    0.4516    0.8927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.3539    0.4040    0.9464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.0068    0.6905    0.9672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.9730    0.6943    0.9688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.4646    0.6396    0.9458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.1163    0.4562    0.8750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.0031    0.3475    0.8484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.9696    0.3504    0.8468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.8863    0.3519    0.8548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.6817    0.3104    0.8364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.2773    0.1738    0.6475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.0212    0.3210    0.8081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.8178    0.3325    0.8087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.0738    0.3145    0.8158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.2069    0.2730    0.7643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.8240    0.3267    0.8079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.5100    0.3408    0.8123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.9383    0.3180    0.8128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.4725    0.2718    0.7530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.9632    0.3492    0.8481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.9322    0.3510    0.8448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.8996    0.3531    0.8554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.5405    0.3140    0.8322</t>
   </si>
 </sst>
 </file>
@@ -811,7 +1239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -834,11 +1262,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -857,11 +1365,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,13 +1715,13 @@
       <c r="B4" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1736,56 +2263,56 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="6"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="6"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -2855,10 +3382,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,9 +3398,9 @@
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -2890,8 +3417,29 @@
       <c r="G1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -2908,7 +3456,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>240</v>
       </c>
@@ -2916,49 +3464,93 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>5.0823999999999998</v>
+      </c>
+      <c r="J13">
+        <v>4.0529000000000002</v>
+      </c>
+      <c r="K13">
+        <v>3.8218999999999999</v>
+      </c>
+      <c r="O13">
+        <v>5.0823999999999998</v>
+      </c>
+      <c r="P13">
+        <v>4.0529000000000002</v>
+      </c>
+      <c r="Q13">
+        <v>3.8218999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>5.7542</v>
+      </c>
+      <c r="J14">
+        <v>4.7184999999999997</v>
+      </c>
+      <c r="K14">
+        <v>4.4438000000000004</v>
+      </c>
+      <c r="O14">
+        <v>5.7542</v>
+      </c>
+      <c r="P14">
+        <v>4.7184999999999997</v>
+      </c>
+      <c r="Q14">
+        <v>4.4438000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B15">
         <v>5.004651</v>
@@ -2969,22 +3561,28 @@
       <c r="D15">
         <v>11.845544</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15">
+        <v>7.0956999999999999</v>
+      </c>
+      <c r="J15">
+        <v>8.8888999999999996</v>
+      </c>
+      <c r="K15">
+        <v>7.8966000000000003</v>
+      </c>
+      <c r="O15">
+        <v>7.0956999999999999</v>
+      </c>
+      <c r="P15">
+        <v>8.8888999999999996</v>
+      </c>
+      <c r="Q15">
+        <v>7.8966000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>247</v>
-      </c>
-      <c r="J15">
-        <v>5.1379999999999999</v>
-      </c>
-      <c r="K15">
-        <v>9.5967000000000002</v>
-      </c>
-      <c r="L15">
-        <v>12.128399999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>250</v>
       </c>
       <c r="B16">
         <v>4.0962740000000002</v>
@@ -2995,22 +3593,10 @@
       <c r="D16">
         <v>10.179871</v>
       </c>
-      <c r="I16" t="s">
-        <v>248</v>
-      </c>
-      <c r="J16">
-        <v>4.1007999999999996</v>
-      </c>
-      <c r="K16">
-        <v>7.0898000000000003</v>
-      </c>
-      <c r="L16">
-        <v>10.397500000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B17">
         <v>3.8642110000000001</v>
@@ -3022,94 +3608,1941 @@
         <v>9.9262250000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I19" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="I18">
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="J18">
+        <v>0.68520000000000003</v>
+      </c>
+      <c r="K18">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="P18">
+        <v>0.68520000000000003</v>
+      </c>
+      <c r="Q18">
+        <v>0.71660000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="J19">
+        <v>0.61919999999999997</v>
+      </c>
+      <c r="K19">
+        <v>0.64219999999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="P19">
+        <v>0.61919999999999997</v>
+      </c>
+      <c r="Q19">
+        <v>0.64219999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20">
+        <v>0.58441600000000005</v>
+      </c>
+      <c r="C20">
+        <v>0.28919499999999998</v>
+      </c>
+      <c r="D20">
+        <v>0.31924000000000002</v>
+      </c>
+      <c r="I20">
+        <v>0.45</v>
+      </c>
+      <c r="J20">
+        <v>0.33019999999999999</v>
+      </c>
+      <c r="K20">
+        <v>0.2737</v>
+      </c>
+      <c r="O20">
+        <v>0.45</v>
+      </c>
+      <c r="P20">
+        <v>0.33019999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.2737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>247</v>
       </c>
-      <c r="J19">
-        <v>0.57820000000000005</v>
-      </c>
-      <c r="K19">
-        <v>0.34360000000000002</v>
-      </c>
-      <c r="L19">
-        <v>0.31059999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.680064</v>
+      </c>
+      <c r="C21">
+        <v>0.44700400000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.36642599999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B22">
-        <v>0.58441600000000005</v>
+        <v>0.71096400000000004</v>
       </c>
       <c r="C22">
-        <v>0.28919499999999998</v>
+        <v>0.47380499999999998</v>
       </c>
       <c r="D22">
-        <v>0.31924000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>250</v>
-      </c>
-      <c r="B23">
-        <v>0.680064</v>
-      </c>
-      <c r="C23">
-        <v>0.44700400000000001</v>
-      </c>
-      <c r="D23">
-        <v>0.36642599999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.37480599999999997</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="I23">
+        <v>9.2802000000000007</v>
+      </c>
+      <c r="J23">
+        <v>6.7407000000000004</v>
+      </c>
+      <c r="K23">
+        <v>6.4721000000000002</v>
+      </c>
+      <c r="O23">
+        <v>9.2802000000000007</v>
+      </c>
+      <c r="P23">
+        <v>6.7407000000000004</v>
+      </c>
+      <c r="Q23">
+        <v>6.4721000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>249</v>
-      </c>
-      <c r="B24">
-        <v>0.71096400000000004</v>
-      </c>
-      <c r="C24">
-        <v>0.47380499999999998</v>
-      </c>
-      <c r="D24">
-        <v>0.37480599999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="I24">
+        <v>10.4505</v>
+      </c>
+      <c r="J24">
+        <v>7.8036000000000003</v>
+      </c>
+      <c r="K24">
+        <v>7.2714999999999996</v>
+      </c>
+      <c r="O24">
+        <v>10.4505</v>
+      </c>
+      <c r="P24">
+        <v>7.8036000000000003</v>
+      </c>
+      <c r="Q24">
+        <v>7.2714999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="I25">
+        <v>12.073</v>
+      </c>
+      <c r="J25">
+        <v>10.1829</v>
+      </c>
+      <c r="K25">
+        <v>8.7472999999999992</v>
+      </c>
+      <c r="O25">
+        <v>12.073</v>
+      </c>
+      <c r="P25">
+        <v>10.1829</v>
+      </c>
+      <c r="Q25">
+        <v>8.7472999999999992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="I26">
+        <v>30.012899999999998</v>
+      </c>
+      <c r="J26">
+        <v>17.271699999999999</v>
+      </c>
+      <c r="K26">
+        <v>9.9297000000000004</v>
+      </c>
+      <c r="O26">
+        <v>30.012899999999998</v>
+      </c>
+      <c r="P26">
+        <v>17.271699999999999</v>
+      </c>
+      <c r="Q26">
+        <v>9.9297000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>0.3473</v>
+      </c>
+      <c r="J28">
+        <v>0.46579999999999999</v>
+      </c>
+      <c r="K28">
+        <v>0.49020000000000002</v>
+      </c>
+      <c r="O28">
+        <v>0.3473</v>
+      </c>
+      <c r="P28">
+        <v>0.46579999999999999</v>
+      </c>
+      <c r="Q28">
+        <v>0.49020000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>0.32179999999999997</v>
+      </c>
+      <c r="J29">
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="K29">
+        <v>0.44490000000000002</v>
+      </c>
+      <c r="O29">
+        <v>0.32179999999999997</v>
+      </c>
+      <c r="P29">
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="Q29">
+        <v>0.44490000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="I30">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="J30">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="K30">
+        <v>0.41270000000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="P30">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="Q30">
+        <v>0.41270000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.2</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="I33">
+        <v>11.7895</v>
+      </c>
+      <c r="J33">
+        <v>9.7744999999999997</v>
+      </c>
+      <c r="K33">
+        <v>9.6369000000000007</v>
+      </c>
+      <c r="O33">
+        <v>11.7895</v>
+      </c>
+      <c r="P33">
+        <v>9.7744999999999997</v>
+      </c>
+      <c r="Q33">
+        <v>9.6369000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="I34">
+        <v>12.2372</v>
+      </c>
+      <c r="J34">
+        <v>10.383100000000001</v>
+      </c>
+      <c r="K34">
+        <v>10.0937</v>
+      </c>
+      <c r="O34">
+        <v>12.2372</v>
+      </c>
+      <c r="P34">
+        <v>10.383100000000001</v>
+      </c>
+      <c r="Q34">
+        <v>10.0937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="I35">
+        <v>13.6455</v>
+      </c>
+      <c r="J35">
+        <v>11.8538</v>
+      </c>
+      <c r="K35">
+        <v>11.264699999999999</v>
+      </c>
+      <c r="O35">
+        <v>13.6455</v>
+      </c>
+      <c r="P35">
+        <v>11.8538</v>
+      </c>
+      <c r="Q35">
+        <v>11.264699999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="I36">
+        <v>15.731999999999999</v>
+      </c>
+      <c r="J36">
+        <v>15.112299999999999</v>
+      </c>
+      <c r="K36">
+        <v>12.0024</v>
+      </c>
+      <c r="O36">
+        <v>15.731999999999999</v>
+      </c>
+      <c r="P36">
+        <v>15.112299999999999</v>
+      </c>
+      <c r="Q36">
+        <v>12.0024</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="J38">
+        <v>0.38840000000000002</v>
+      </c>
+      <c r="K38">
+        <v>0.3916</v>
+      </c>
+      <c r="O38">
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="P38">
+        <v>0.38840000000000002</v>
+      </c>
+      <c r="Q38">
+        <v>0.3916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>0.30180000000000001</v>
+      </c>
+      <c r="J39">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="K39">
+        <v>0.36080000000000001</v>
+      </c>
+      <c r="O39">
+        <v>0.30180000000000001</v>
+      </c>
+      <c r="P39">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="Q39">
+        <v>0.36080000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>0.2535</v>
+      </c>
+      <c r="J40">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="K40">
+        <v>0.30669999999999997</v>
+      </c>
+      <c r="O40">
+        <v>0.2535</v>
+      </c>
+      <c r="P40">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="Q40">
+        <v>0.30669999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>0.2316</v>
+      </c>
+      <c r="J41">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="K41">
+        <v>0.25109999999999999</v>
+      </c>
+      <c r="O41">
+        <v>0.2316</v>
+      </c>
+      <c r="P41">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="Q41">
+        <v>0.25109999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.47776999999999997</v>
+      </c>
+      <c r="C4" s="10">
+        <v>13.364493</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.36004599999999998</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.73416000000000003</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.48800300000000002</v>
+      </c>
+      <c r="G4" s="10">
+        <v>13.069471</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.37370399999999998</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.72708399999999995</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.59818199999999999</v>
+      </c>
+      <c r="K4" s="10">
+        <v>9.2014779999999998</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.50383299999999998</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.82509600000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10">
+        <v>12.9682</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10">
+        <v>12.484999999999999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.40110000000000001</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.72989999999999999</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10">
+        <v>8.8089999999999993</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0.81489999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10">
+        <v>13.5182</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.3478</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.72519999999999996</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10">
+        <v>13.2623</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.72150000000000003</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10">
+        <v>9.3857999999999997</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0.49070000000000003</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10">
+        <v>15.301399999999999</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.2742</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.68010000000000004</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10">
+        <v>16.097000000000001</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.6653</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10">
+        <v>11.007099999999999</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0.42059999999999997</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0.77649999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13">
+        <v>17.459399999999999</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.2306</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.61660000000000004</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13">
+        <v>18.9833</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.21729999999999999</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13">
+        <v>12.4541</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0.3306</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0.64780000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>252</v>
+      </c>
+      <c r="J11" t="s">
+        <v>252</v>
+      </c>
+      <c r="S11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12">
+        <v>0.65085700000000002</v>
+      </c>
+      <c r="C12">
+        <v>7.8736639999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.52854199999999996</v>
+      </c>
+      <c r="E12">
+        <v>0.85342099999999999</v>
+      </c>
+      <c r="J12" t="s">
+        <v>258</v>
+      </c>
+      <c r="T12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13">
+        <v>7.4871999999999996</v>
+      </c>
+      <c r="D13">
+        <v>0.53920000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.8125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>259</v>
+      </c>
+      <c r="S13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14">
+        <v>8.8543000000000003</v>
+      </c>
+      <c r="D14">
+        <v>0.4985</v>
+      </c>
+      <c r="E14">
+        <v>0.79820000000000002</v>
+      </c>
+      <c r="J14" t="s">
+        <v>260</v>
+      </c>
+      <c r="S14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15">
+        <v>11.5494</v>
+      </c>
+      <c r="D15">
+        <v>0.46310000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.79920000000000002</v>
+      </c>
+      <c r="J15" t="s">
+        <v>261</v>
+      </c>
+      <c r="S15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>253</v>
+      </c>
+      <c r="J18" t="s">
+        <v>253</v>
+      </c>
+      <c r="S18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.74116300000000002</v>
+      </c>
+      <c r="C19">
+        <v>5.5367649999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.57670999999999994</v>
+      </c>
+      <c r="E19">
+        <v>0.94171400000000005</v>
+      </c>
+      <c r="K19" t="s">
+        <v>254</v>
+      </c>
+      <c r="T19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>5.4706000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.58069999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="J20" t="s">
+        <v>255</v>
+      </c>
+      <c r="S20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>6.4592999999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.5202</v>
+      </c>
+      <c r="E21">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="J21" t="s">
+        <v>256</v>
+      </c>
+      <c r="S21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>8.9869000000000003</v>
+      </c>
+      <c r="D22">
+        <v>0.44069999999999998</v>
+      </c>
+      <c r="E22">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="J22" t="s">
+        <v>257</v>
+      </c>
+      <c r="S22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>6.4721000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>7.2714999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>8.7472999999999992</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>9.9297000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O3" t="s">
+        <v>281</v>
+      </c>
+      <c r="P3" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>283</v>
+      </c>
+      <c r="R3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" t="s">
+        <v>290</v>
+      </c>
+      <c r="N5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H6" t="s">
+        <v>291</v>
+      </c>
+      <c r="N6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" t="s">
+        <v>292</v>
+      </c>
+      <c r="N7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" t="s">
+        <v>252</v>
+      </c>
+      <c r="N10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" t="s">
+        <v>284</v>
+      </c>
+      <c r="I11" t="s">
+        <v>281</v>
+      </c>
+      <c r="J11" t="s">
+        <v>282</v>
+      </c>
+      <c r="K11" t="s">
+        <v>283</v>
+      </c>
+      <c r="L11" t="s">
+        <v>284</v>
+      </c>
+      <c r="O11" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>283</v>
+      </c>
+      <c r="R11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>298</v>
+      </c>
+      <c r="H12" t="s">
+        <v>302</v>
+      </c>
+      <c r="N12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>299</v>
+      </c>
+      <c r="H13" t="s">
+        <v>303</v>
+      </c>
+      <c r="N13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>300</v>
+      </c>
+      <c r="H14" t="s">
+        <v>304</v>
+      </c>
+      <c r="N14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>301</v>
+      </c>
+      <c r="H15" t="s">
+        <v>305</v>
+      </c>
+      <c r="N15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>253</v>
+      </c>
+      <c r="H18" t="s">
+        <v>252</v>
+      </c>
+      <c r="N18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E19" t="s">
+        <v>284</v>
+      </c>
+      <c r="I19" t="s">
+        <v>281</v>
+      </c>
+      <c r="J19" t="s">
+        <v>282</v>
+      </c>
+      <c r="K19" t="s">
+        <v>283</v>
+      </c>
+      <c r="L19" t="s">
+        <v>284</v>
+      </c>
+      <c r="O19" t="s">
+        <v>281</v>
+      </c>
+      <c r="P19" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>283</v>
+      </c>
+      <c r="R19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>311</v>
+      </c>
+      <c r="H20" t="s">
+        <v>315</v>
+      </c>
+      <c r="N20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="H21" t="s">
+        <v>316</v>
+      </c>
+      <c r="N21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="H22" t="s">
+        <v>317</v>
+      </c>
+      <c r="N22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H23" t="s">
+        <v>318</v>
+      </c>
+      <c r="N23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:AI48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O16" workbookViewId="0">
+      <selection activeCell="AF34" sqref="AF34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" t="s">
+        <v>284</v>
+      </c>
+      <c r="K6" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>326</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>327</v>
+      </c>
+      <c r="K9" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>324</v>
+      </c>
+      <c r="X9" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K10" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>253</v>
+      </c>
+      <c r="X10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>252</v>
+      </c>
+      <c r="R11" t="s">
+        <v>281</v>
+      </c>
+      <c r="S11" t="s">
+        <v>282</v>
+      </c>
+      <c r="T11" t="s">
+        <v>283</v>
+      </c>
+      <c r="U11" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>281</v>
+      </c>
+      <c r="M12" t="s">
+        <v>282</v>
+      </c>
+      <c r="N12" t="s">
+        <v>283</v>
+      </c>
+      <c r="O12" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>351</v>
+      </c>
+      <c r="X12" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>329</v>
+      </c>
+      <c r="K13" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>352</v>
+      </c>
+      <c r="X13" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>353</v>
+      </c>
+      <c r="X14" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>330</v>
+      </c>
+      <c r="K15" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>354</v>
+      </c>
+      <c r="X15" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>346</v>
+      </c>
+      <c r="X16" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
+      <c r="K24" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>324</v>
+      </c>
+      <c r="X24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" t="s">
+        <v>282</v>
+      </c>
+      <c r="F25" t="s">
+        <v>283</v>
+      </c>
+      <c r="G25" t="s">
+        <v>284</v>
+      </c>
+      <c r="K25" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>253</v>
+      </c>
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>331</v>
+      </c>
+      <c r="L26" t="s">
+        <v>281</v>
+      </c>
+      <c r="M26" t="s">
+        <v>282</v>
+      </c>
+      <c r="N26" t="s">
+        <v>283</v>
+      </c>
+      <c r="O26" t="s">
+        <v>284</v>
+      </c>
+      <c r="R26" t="s">
+        <v>281</v>
+      </c>
+      <c r="S26" t="s">
+        <v>282</v>
+      </c>
+      <c r="T26" t="s">
+        <v>283</v>
+      </c>
+      <c r="U26" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>332</v>
+      </c>
+      <c r="K27" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>355</v>
+      </c>
+      <c r="X27" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>333</v>
+      </c>
+      <c r="K28" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>356</v>
+      </c>
+      <c r="X28" t="s">
+        <v>365</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>334</v>
+      </c>
+      <c r="K29" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>357</v>
+      </c>
+      <c r="X29" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>358</v>
+      </c>
+      <c r="X30" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="X31" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>17</v>
+      </c>
+      <c r="X37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>324</v>
+      </c>
+      <c r="X38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>253</v>
+      </c>
+      <c r="X39" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" t="s">
+        <v>282</v>
+      </c>
+      <c r="N40" t="s">
+        <v>283</v>
+      </c>
+      <c r="O40" t="s">
+        <v>284</v>
+      </c>
+      <c r="R40" t="s">
+        <v>281</v>
+      </c>
+      <c r="S40" t="s">
+        <v>282</v>
+      </c>
+      <c r="T40" t="s">
+        <v>283</v>
+      </c>
+      <c r="U40" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>373</v>
+      </c>
+      <c r="X41" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>324</v>
+      </c>
+      <c r="K42" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>374</v>
+      </c>
+      <c r="X42" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>252</v>
+      </c>
+      <c r="K43" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>375</v>
+      </c>
+      <c r="X43" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>281</v>
+      </c>
+      <c r="E44" t="s">
+        <v>282</v>
+      </c>
+      <c r="F44" t="s">
+        <v>283</v>
+      </c>
+      <c r="G44" t="s">
+        <v>284</v>
+      </c>
+      <c r="K44" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>376</v>
+      </c>
+      <c r="X44" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>336</v>
+      </c>
+      <c r="X45" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/age_gender/performance.xlsx
+++ b/age_gender/performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="15600" windowHeight="5880" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="15600" windowHeight="5880" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="402">
   <si>
     <t>FGNET</t>
   </si>
@@ -1201,6 +1202,30 @@
   </si>
   <si>
     <t xml:space="preserve">   10.5405    0.3140    0.8322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.2434    0.3702    0.8618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.2323    0.3724    0.8577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.1661    0.3736    0.8698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.7745    0.3330    0.8465</t>
+  </si>
+  <si>
+    <t>Yamaha lambda eval</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>gender acc</t>
+  </si>
+  <si>
+    <t>age acc</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1390,6 +1415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4853,10 +4879,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AI48"/>
+  <dimension ref="C4:AI55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O16" workbookViewId="0">
-      <selection activeCell="AF34" sqref="AF34"/>
+    <sheetView topLeftCell="T37" workbookViewId="0">
+      <selection activeCell="AF48" sqref="AF48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5542,6 +5568,151 @@
         <v>339</v>
       </c>
     </row>
+    <row r="50" spans="31:35" x14ac:dyDescent="0.25">
+      <c r="AE50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="31:35" x14ac:dyDescent="0.25">
+      <c r="AF51" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="31:35" x14ac:dyDescent="0.25">
+      <c r="AE52" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="53" spans="31:35" x14ac:dyDescent="0.25">
+      <c r="AE53" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54" spans="31:35" x14ac:dyDescent="0.25">
+      <c r="AE54" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55" spans="31:35" x14ac:dyDescent="0.25">
+      <c r="AE55" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20.714600000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.1341</v>
+      </c>
+      <c r="D3">
+        <v>0.49109999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="B4">
+        <v>7.7108999999999996</v>
+      </c>
+      <c r="C4">
+        <v>0.4173</v>
+      </c>
+      <c r="D4">
+        <v>0.92169999999999996</v>
+      </c>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B9">
+        <v>7.0058999999999996</v>
+      </c>
+      <c r="C9">
+        <v>0.46539999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.92220000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/age_gender/performance.xlsx
+++ b/age_gender/performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="15600" windowHeight="5880" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="15600" windowHeight="5880" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="681">
   <si>
     <t>FGNET</t>
   </si>
@@ -1226,6 +1228,843 @@
   </si>
   <si>
     <t>age acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            &lt; M A T L A B (R) &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Copyright 1984-2009 The MathWorks, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Version 7.8.0.347 (R2009a) 64-bit (glnxa64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             February 12, 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To get started, type one of these: helpwin, helpdesk, or demo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  For product information, visit www.mathworks.com.</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;---lambda = 3.000000e-04 ----&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fold 1, fold 2, fold 3, fold 4,</t>
+  </si>
+  <si>
+    <t>Cross validation on Yamaha_HOGFeature_AlignLv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.9148    0.4662    0.9368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.6334    0.4759    0.9412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.6415    0.4410    0.9250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.5240    0.3922    0.9221</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;---lambda = 1.000000e-04 ----&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.5897    0.4845    0.9415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.3432    0.4944    0.9467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.2041    0.4586    0.9269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.8374    0.4132    0.9186</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;---lambda = 3.000000e-05 ----&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.5051    0.4917    0.9338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.2987    0.5019    0.9399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.0481    0.4614    0.9191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.9516    0.4673    0.8484</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;---lambda = 1.000000e-05 ----&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.6873    0.4775    0.9302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.4507    0.4897    0.9381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.2818    0.4459    0.9121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.7645    0.3692    0.8230</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;---lambda = 3.000000e-06 ----&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.9382    0.4703    0.9266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.6976    0.4859    0.9291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.6024    0.4275    0.9227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.5645    0.3376    0.8704</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;---lambda = 1.000000e-06 ----&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.1458    0.4600    0.9216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.9615    0.4670    0.9279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.6121    0.4446    0.9088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.3409    0.4296    0.8340</t>
+  </si>
+  <si>
+    <t>best age lambda = 0.000030, gender lambda = 0.000100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.0373    0.5182    0.9509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.8692    0.5268    0.9532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.4133    0.5003    0.9452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.2945    0.3817    0.9284</t>
+  </si>
+  <si>
+    <t>Cross validation on Morph2_HOGFeature_AlignLv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.4129    0.6410    0.9725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.3764    0.6451    0.9742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.9347    0.5813    0.9466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.0672    0.3500    0.9500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1171    0.6777    0.9790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.0820    0.6822    0.9803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.6173    0.6136    0.9600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.6874    0.2917    1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.9569    0.6964    0.9820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.9217    0.7002    0.9831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.4612    0.6411    0.9666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.1850    0.2917    1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.9105    0.7010    0.9832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.8757    0.7052    0.9841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.4056    0.6409    0.9705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.7330    0.4792    1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.0321    0.6889    0.9821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.0012    0.6925    0.9830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.4577    0.6391    0.9693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.6759    0.3056    1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.2143    0.6660    0.9788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1810    0.6691    0.9798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.6856    0.6218    0.9645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.4240    0.4167    0.9167</t>
+  </si>
+  <si>
+    <t>best age lambda = 0.000010, gender lambda = 0.000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.7953    0.7169    0.9832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.7625    0.7208    0.9837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.2539    0.6605    0.9765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.9451    0.5583    0.9500</t>
+  </si>
+  <si>
+    <t>Cross validation on WebFace_HOGFeature_AlignLv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.6416    0.3160    0.8540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.6776    0.3160    0.8506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.4645    0.3216    0.8631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.3371    0.2861    0.8298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.1405    0.3383    0.8615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.1665    0.3395    0.8576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.9652    0.3439    0.8702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.8773    0.3015    0.8424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.8917    0.3492    0.8644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.9028    0.3506    0.8609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.7251    0.3533    0.8743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.7041    0.3177    0.8372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.9219    0.3528    0.8574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.8777    0.3563    0.8547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.8267    0.3557    0.8671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.7375    0.3129    0.8261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.2111    0.3478    0.8445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.1008    0.3528    0.8450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.1604    0.3490    0.8511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.2314    0.3071    0.8088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.7212    0.3344    0.8223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.5634    0.3443    0.8221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.7155    0.3310    0.8304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.8431    0.2841    0.7837</t>
+  </si>
+  <si>
+    <t>best age lambda = 0.000030, gender lambda = 0.000030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.7582    0.3568    0.8699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.7245    0.3603    0.8669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.6708    0.3593    0.8784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.4793    0.3171    0.8454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt; </t>
+  </si>
+  <si>
+    <t>Cross validation on Yamaha_HOGFeature_AlignLv0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.1904    0.3915    0.9023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.7848    0.4074    0.9086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.1756    0.3470    0.8831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   13.0588    0.3284    0.9221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.9795    0.4019    0.9109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.6243    0.4078    0.9173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.8291    0.3849    0.8926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.9606    0.3932    0.8853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.9683    0.3998    0.9023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.6067    0.4159    0.9089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.7899    0.3568    0.8872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   13.1221    0.2987    0.8332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.2908    0.3871    0.8860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.9317    0.3980    0.8973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.0162    0.3623    0.8571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.1894    0.2422    0.8083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.7256    0.3742    0.8700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.3542    0.3793    0.8782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.4930    0.3619    0.8508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.0715    0.3094    0.7685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.9874    0.3590    0.8675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.5447    0.3738    0.8725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.0024    0.3197    0.8619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.2209    0.2668    0.7028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.4489    0.4291    0.9208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.1474    0.4430    0.9249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.1818    0.3926    0.9096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.8593    0.3337    0.8926</t>
+  </si>
+  <si>
+    <t>Cross validation on Morph2_HOGFeature_AlignLv0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.0405    0.5710    0.9522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.9961    0.5756    0.9565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.6739    0.5046    0.8902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.7834    0.3000    0.5667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.7152    0.6076    0.9630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.6700    0.6119    0.9661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.3631    0.5452    0.9189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.5416    0.2917    0.7500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.5312    0.6285    0.9682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.4852    0.6327    0.9709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.1925    0.5670    0.9293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.7082    0.2083    0.8750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.4908    0.6364    0.9683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.4459    0.6410    0.9709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.1317    0.5699    0.9308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.4992    0.3958    0.7500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.6124    0.6234    0.9655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.5660    0.6277    0.9687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.2622    0.5628    0.9192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.2661    0.1944    0.8889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.8201    0.6047    0.9613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.7778    0.6072    0.9645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.4174    0.5709    0.9136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.6710    0.3333    0.9167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.3496    0.6508    0.9707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.3070    0.6551    0.9729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.9565    0.5896    0.9394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.0229    0.4750    0.8500</t>
+  </si>
+  <si>
+    <t>Cross validation on WebFace_HOGFeature_AlignLv0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.2441    0.2912    0.8235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.1933    0.2963    0.8204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.1710    0.2887    0.8305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.9891    0.2690    0.8075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.7868    0.3117    0.8308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.7202    0.3167    0.8272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.7066    0.3104    0.8401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.6591    0.2850    0.8075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.5617    0.3255    0.8315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.4502    0.3325    0.8310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.5149    0.3230    0.8385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.5813    0.2905    0.7991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.5966    0.3291    0.8237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.4671    0.3374    0.8223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.5540    0.3275    0.8306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.7316    0.2799    0.7978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.9246    0.3213    0.8066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.7473    0.3296    0.8081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.9058    0.3217    0.8090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.2675    0.2612    0.7859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.4492    0.3107    0.7829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.2369    0.3231    0.7836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.4496    0.3063    0.7874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.9090    0.2486    0.7559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.3603    0.3291    0.8378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.2162    0.3378    0.8352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.3791    0.3234    0.8461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.2981    0.2975    0.8116</t>
+  </si>
+  <si>
+    <t>Cross validation on Yamaha_HOGFeature_AlignLv1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.0360    0.4636    0.9352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.6686    0.4816    0.9417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.7815    0.4276    0.9212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   13.6066    0.1235    0.8309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.6953    0.4770    0.9302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.3754    0.4938    0.9362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.3489    0.4334    0.9145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.5971    0.2691    0.8854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.6586    0.4858    0.9285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.3529    0.4980    0.9374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.3035    0.4575    0.9104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.5281    0.3250    0.8036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.8797    0.4711    0.9269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.6105    0.4817    0.9344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.3885    0.4502    0.9140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.1083    0.2922    0.7617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.2783    0.4576    0.9172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.9775    0.4708    0.9304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.9930    0.4225    0.8874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.7538    0.3843    0.7407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.4647    0.4357    0.9087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.1335    0.4500    0.9168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.1959    0.4046    0.8921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.1673    0.2550    0.7730</t>
+  </si>
+  <si>
+    <t>best age lambda = 0.000030, gender lambda = 0.000300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.2071    0.5169    0.9308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.8977    0.5309    0.9366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.9722    0.4824    0.9190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.5644    0.3621    0.8212</t>
+  </si>
+  <si>
+    <t>Cross validation on Morph2_HOGFeature_AlignLv1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.5380    0.6269    0.9579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.4916    0.6312    0.9611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.2099    0.5618    0.9109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.6503    0.5000    0.8750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.2333    0.6656    0.9680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1918    0.6701    0.9705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.8305    0.6012    0.9305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.0485    0.6111    0.8889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.0402    0.6895    0.9727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.0013    0.6941    0.9752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.5968    0.6227    0.9368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.4585    0.5833    0.7500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.9958    0.6957    0.9753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.9574    0.7001    0.9776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.5484    0.6326    0.9427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.0854    0.2083    0.7917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.0704    0.6861    0.9732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.0334    0.6903    0.9752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.5921    0.6268    0.9455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.8152    0.5000    0.5833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.2746    0.6628    0.9687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.2308    0.6669    0.9710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.8993    0.6045    0.9358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.0126    0.3333    0.7917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.9031    0.7042    0.9762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.8571    0.7092    0.9780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.5473    0.6333    0.9511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.8823    0.5030    0.8095</t>
+  </si>
+  <si>
+    <t>Cross validation on WebFace_HOGFeature_AlignLv1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.0441    0.2984    0.8209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.6989    0.3143    0.8204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.2390    0.2846    0.8296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.5114    0.2582    0.7790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.5776    0.3195    0.8298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.2381    0.3342    0.8309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.7549    0.3082    0.8369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.0847    0.2732    0.7855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.3949    0.3332    0.8285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.0301    0.3499    0.8282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.5944    0.3204    0.8362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.9712    0.2808    0.7903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.4468    0.3329    0.8224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.0604    0.3500    0.8239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.6675    0.3196    0.8288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.0648    0.2806    0.7787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.7491    0.3253    0.8065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.3430    0.3401    0.8103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.9622    0.3158    0.8115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.5328    0.2702    0.7547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.2306    0.3150    0.7852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.8205    0.3305    0.7888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.4252    0.3052    0.7895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   13.1681    0.2552    0.7384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.1925    0.3372    0.8317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.9012    0.3519    0.8348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.3116    0.3257    0.8368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.6352    0.2948    0.7847</t>
   </si>
 </sst>
 </file>
@@ -1397,6 +2236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1415,7 +2255,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1741,13 +2580,13 @@
       <c r="B4" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -2289,56 +3128,56 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="6"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="6"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -4162,24 +5001,24 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -5616,7 +6455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -5656,7 +6495,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="15">
         <v>1E-3</v>
       </c>
       <c r="B4">
@@ -5668,34 +6507,34 @@
       <c r="D4">
         <v>0.92169999999999996</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="15">
         <v>1E-4</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="15">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="15">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="15">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B9">
@@ -5709,8 +6548,2870 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="15">
         <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:V522"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="R76" sqref="R76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" t="s">
+        <v>408</v>
+      </c>
+      <c r="K20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>409</v>
+      </c>
+      <c r="F21" t="s">
+        <v>409</v>
+      </c>
+      <c r="K21" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" t="s">
+        <v>445</v>
+      </c>
+      <c r="K22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D23" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" t="s">
+        <v>283</v>
+      </c>
+      <c r="I23" t="s">
+        <v>284</v>
+      </c>
+      <c r="L23" t="s">
+        <v>282</v>
+      </c>
+      <c r="M23" t="s">
+        <v>283</v>
+      </c>
+      <c r="N23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>411</v>
+      </c>
+      <c r="F24" t="s">
+        <v>446</v>
+      </c>
+      <c r="K24" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>412</v>
+      </c>
+      <c r="F26" t="s">
+        <v>447</v>
+      </c>
+      <c r="K26" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>413</v>
+      </c>
+      <c r="F27" t="s">
+        <v>448</v>
+      </c>
+      <c r="K27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>414</v>
+      </c>
+      <c r="F28" t="s">
+        <v>449</v>
+      </c>
+      <c r="K28" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F30" t="s">
+        <v>415</v>
+      </c>
+      <c r="K30" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>409</v>
+      </c>
+      <c r="F31" t="s">
+        <v>409</v>
+      </c>
+      <c r="K31" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>410</v>
+      </c>
+      <c r="F32" t="s">
+        <v>445</v>
+      </c>
+      <c r="K32" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D33" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" t="s">
+        <v>282</v>
+      </c>
+      <c r="H33" t="s">
+        <v>283</v>
+      </c>
+      <c r="I33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" t="s">
+        <v>283</v>
+      </c>
+      <c r="N33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>416</v>
+      </c>
+      <c r="F34" t="s">
+        <v>450</v>
+      </c>
+      <c r="K34" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>417</v>
+      </c>
+      <c r="F36" t="s">
+        <v>451</v>
+      </c>
+      <c r="K36" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>418</v>
+      </c>
+      <c r="F37" t="s">
+        <v>452</v>
+      </c>
+      <c r="K37" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>419</v>
+      </c>
+      <c r="F38" t="s">
+        <v>453</v>
+      </c>
+      <c r="K38" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>420</v>
+      </c>
+      <c r="F40" t="s">
+        <v>420</v>
+      </c>
+      <c r="K40" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>409</v>
+      </c>
+      <c r="F41" t="s">
+        <v>409</v>
+      </c>
+      <c r="K41" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>410</v>
+      </c>
+      <c r="F42" t="s">
+        <v>445</v>
+      </c>
+      <c r="K42" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>282</v>
+      </c>
+      <c r="C43" t="s">
+        <v>283</v>
+      </c>
+      <c r="D43" t="s">
+        <v>284</v>
+      </c>
+      <c r="G43" t="s">
+        <v>282</v>
+      </c>
+      <c r="H43" t="s">
+        <v>283</v>
+      </c>
+      <c r="I43" t="s">
+        <v>284</v>
+      </c>
+      <c r="L43" t="s">
+        <v>282</v>
+      </c>
+      <c r="M43" t="s">
+        <v>283</v>
+      </c>
+      <c r="N43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>421</v>
+      </c>
+      <c r="F44" t="s">
+        <v>454</v>
+      </c>
+      <c r="K44" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>422</v>
+      </c>
+      <c r="F46" t="s">
+        <v>455</v>
+      </c>
+      <c r="K46" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>423</v>
+      </c>
+      <c r="F47" t="s">
+        <v>456</v>
+      </c>
+      <c r="K47" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>424</v>
+      </c>
+      <c r="F48" t="s">
+        <v>457</v>
+      </c>
+      <c r="K48" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>425</v>
+      </c>
+      <c r="F50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K50" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>409</v>
+      </c>
+      <c r="F51" t="s">
+        <v>409</v>
+      </c>
+      <c r="K51" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>410</v>
+      </c>
+      <c r="F52" t="s">
+        <v>445</v>
+      </c>
+      <c r="K52" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" t="s">
+        <v>283</v>
+      </c>
+      <c r="D53" t="s">
+        <v>284</v>
+      </c>
+      <c r="G53" t="s">
+        <v>282</v>
+      </c>
+      <c r="H53" t="s">
+        <v>283</v>
+      </c>
+      <c r="I53" t="s">
+        <v>284</v>
+      </c>
+      <c r="L53" t="s">
+        <v>282</v>
+      </c>
+      <c r="M53" t="s">
+        <v>283</v>
+      </c>
+      <c r="N53" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>426</v>
+      </c>
+      <c r="F54" t="s">
+        <v>458</v>
+      </c>
+      <c r="K54" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>427</v>
+      </c>
+      <c r="F56" t="s">
+        <v>459</v>
+      </c>
+      <c r="K56" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>428</v>
+      </c>
+      <c r="F57" t="s">
+        <v>460</v>
+      </c>
+      <c r="K57" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>429</v>
+      </c>
+      <c r="F58" t="s">
+        <v>461</v>
+      </c>
+      <c r="K58" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>430</v>
+      </c>
+      <c r="F60" t="s">
+        <v>430</v>
+      </c>
+      <c r="K60" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>409</v>
+      </c>
+      <c r="F61" t="s">
+        <v>409</v>
+      </c>
+      <c r="K61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>410</v>
+      </c>
+      <c r="F62" t="s">
+        <v>445</v>
+      </c>
+      <c r="K62" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C63" t="s">
+        <v>283</v>
+      </c>
+      <c r="D63" t="s">
+        <v>284</v>
+      </c>
+      <c r="G63" t="s">
+        <v>282</v>
+      </c>
+      <c r="H63" t="s">
+        <v>283</v>
+      </c>
+      <c r="I63" t="s">
+        <v>284</v>
+      </c>
+      <c r="L63" t="s">
+        <v>282</v>
+      </c>
+      <c r="M63" t="s">
+        <v>283</v>
+      </c>
+      <c r="N63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>431</v>
+      </c>
+      <c r="F64" t="s">
+        <v>462</v>
+      </c>
+      <c r="K64" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>432</v>
+      </c>
+      <c r="F66" t="s">
+        <v>463</v>
+      </c>
+      <c r="K66" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>433</v>
+      </c>
+      <c r="F67" t="s">
+        <v>464</v>
+      </c>
+      <c r="K67" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>434</v>
+      </c>
+      <c r="F68" t="s">
+        <v>465</v>
+      </c>
+      <c r="K68" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>435</v>
+      </c>
+      <c r="F70" t="s">
+        <v>435</v>
+      </c>
+      <c r="K70" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>409</v>
+      </c>
+      <c r="F71" t="s">
+        <v>409</v>
+      </c>
+      <c r="K71" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>410</v>
+      </c>
+      <c r="F72" t="s">
+        <v>445</v>
+      </c>
+      <c r="K72" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>282</v>
+      </c>
+      <c r="C73" t="s">
+        <v>283</v>
+      </c>
+      <c r="D73" t="s">
+        <v>284</v>
+      </c>
+      <c r="G73" t="s">
+        <v>282</v>
+      </c>
+      <c r="H73" t="s">
+        <v>283</v>
+      </c>
+      <c r="I73" t="s">
+        <v>284</v>
+      </c>
+      <c r="L73" t="s">
+        <v>282</v>
+      </c>
+      <c r="M73" t="s">
+        <v>283</v>
+      </c>
+      <c r="N73" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>436</v>
+      </c>
+      <c r="F74" t="s">
+        <v>466</v>
+      </c>
+      <c r="K74" t="s">
+        <v>496</v>
+      </c>
+      <c r="S74" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S75" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>437</v>
+      </c>
+      <c r="F76" t="s">
+        <v>467</v>
+      </c>
+      <c r="K76" t="s">
+        <v>497</v>
+      </c>
+      <c r="S76" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>438</v>
+      </c>
+      <c r="F77" t="s">
+        <v>468</v>
+      </c>
+      <c r="K77" t="s">
+        <v>498</v>
+      </c>
+      <c r="S77" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>439</v>
+      </c>
+      <c r="F78" t="s">
+        <v>469</v>
+      </c>
+      <c r="K78" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S79" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>440</v>
+      </c>
+      <c r="F80" t="s">
+        <v>470</v>
+      </c>
+      <c r="K80" t="s">
+        <v>500</v>
+      </c>
+      <c r="S80" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>409</v>
+      </c>
+      <c r="F81" t="s">
+        <v>409</v>
+      </c>
+      <c r="K81" t="s">
+        <v>409</v>
+      </c>
+      <c r="S81" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>410</v>
+      </c>
+      <c r="F82" t="s">
+        <v>445</v>
+      </c>
+      <c r="K82" t="s">
+        <v>475</v>
+      </c>
+      <c r="S82" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>282</v>
+      </c>
+      <c r="C83" t="s">
+        <v>283</v>
+      </c>
+      <c r="D83" t="s">
+        <v>284</v>
+      </c>
+      <c r="G83" t="s">
+        <v>282</v>
+      </c>
+      <c r="H83" t="s">
+        <v>283</v>
+      </c>
+      <c r="I83" t="s">
+        <v>284</v>
+      </c>
+      <c r="L83" t="s">
+        <v>282</v>
+      </c>
+      <c r="M83" t="s">
+        <v>283</v>
+      </c>
+      <c r="N83" t="s">
+        <v>284</v>
+      </c>
+      <c r="S83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>441</v>
+      </c>
+      <c r="F84" t="s">
+        <v>471</v>
+      </c>
+      <c r="K84" t="s">
+        <v>501</v>
+      </c>
+      <c r="S84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>442</v>
+      </c>
+      <c r="F86" t="s">
+        <v>472</v>
+      </c>
+      <c r="K86" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>443</v>
+      </c>
+      <c r="F87" t="s">
+        <v>473</v>
+      </c>
+      <c r="K87" t="s">
+        <v>503</v>
+      </c>
+      <c r="S87" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>444</v>
+      </c>
+      <c r="F88" t="s">
+        <v>474</v>
+      </c>
+      <c r="K88" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S89" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K90" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S92" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S93" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S94" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T95" t="s">
+        <v>282</v>
+      </c>
+      <c r="U95" t="s">
+        <v>283</v>
+      </c>
+      <c r="V95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S96" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="98" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S98" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="99" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S99" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="100" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S100" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="102" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S102" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="103" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S103" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="104" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S104" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="105" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T105" t="s">
+        <v>282</v>
+      </c>
+      <c r="U105" t="s">
+        <v>283</v>
+      </c>
+      <c r="V105" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S106" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="108" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S108" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="109" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S109" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="110" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S110" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="112" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S112" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="113" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S113" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="114" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S114" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="115" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T115" t="s">
+        <v>282</v>
+      </c>
+      <c r="U115" t="s">
+        <v>283</v>
+      </c>
+      <c r="V115" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="116" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S116" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="118" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S118" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="119" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S119" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="120" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S120" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="122" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S122" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="123" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S123" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="124" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S124" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="125" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T125" t="s">
+        <v>282</v>
+      </c>
+      <c r="U125" t="s">
+        <v>283</v>
+      </c>
+      <c r="V125" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="126" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S126" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="128" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S128" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="129" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S129" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="130" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S130" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="132" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S132" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="133" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S133" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="134" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S134" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="135" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T135" t="s">
+        <v>282</v>
+      </c>
+      <c r="U135" t="s">
+        <v>283</v>
+      </c>
+      <c r="V135" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="136" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S136" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="138" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S138" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="139" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S139" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="140" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S140" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="142" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S142" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="143" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S143" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="144" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S144" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="145" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T145" t="s">
+        <v>282</v>
+      </c>
+      <c r="U145" t="s">
+        <v>283</v>
+      </c>
+      <c r="V145" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S146" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="148" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S148" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="149" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S149" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="150" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S150" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="152" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S152" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="153" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S153" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="154" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S154" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="155" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T155" t="s">
+        <v>282</v>
+      </c>
+      <c r="U155" t="s">
+        <v>283</v>
+      </c>
+      <c r="V155" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="156" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S156" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="158" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S158" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="159" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S159" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="160" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S160" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="162" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S163" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="164" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S164" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="165" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S165" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="166" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T166" t="s">
+        <v>282</v>
+      </c>
+      <c r="U166" t="s">
+        <v>283</v>
+      </c>
+      <c r="V166" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="167" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S167" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="169" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S169" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="170" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S170" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="171" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S171" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="173" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S173" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="174" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S174" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="175" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S175" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="176" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T176" t="s">
+        <v>282</v>
+      </c>
+      <c r="U176" t="s">
+        <v>283</v>
+      </c>
+      <c r="V176" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="177" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S177" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="179" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S179" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="180" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S180" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="181" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S181" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="183" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S183" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="184" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S184" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="185" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S185" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="186" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T186" t="s">
+        <v>282</v>
+      </c>
+      <c r="U186" t="s">
+        <v>283</v>
+      </c>
+      <c r="V186" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="187" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S187" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="189" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S189" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="190" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S190" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="191" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S191" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="193" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S193" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="194" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S194" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="195" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S195" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="196" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T196" t="s">
+        <v>282</v>
+      </c>
+      <c r="U196" t="s">
+        <v>283</v>
+      </c>
+      <c r="V196" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="197" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S197" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="199" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S199" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="200" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S200" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="201" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S201" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="203" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S203" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="204" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S204" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="205" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S205" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="206" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T206" t="s">
+        <v>282</v>
+      </c>
+      <c r="U206" t="s">
+        <v>283</v>
+      </c>
+      <c r="V206" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="207" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S207" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="209" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S209" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="210" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S210" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="211" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S211" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="213" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S213" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="214" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S214" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="215" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S215" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="216" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T216" t="s">
+        <v>282</v>
+      </c>
+      <c r="U216" t="s">
+        <v>283</v>
+      </c>
+      <c r="V216" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="217" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S217" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="219" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S219" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="220" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S220" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="221" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S221" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="223" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S223" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="224" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S224" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="225" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S225" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="226" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T226" t="s">
+        <v>282</v>
+      </c>
+      <c r="U226" t="s">
+        <v>283</v>
+      </c>
+      <c r="V226" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="227" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S227" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="229" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S229" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="230" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S230" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="231" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S231" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="233" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S233" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="234" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S234" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="235" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S235" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="236" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S236" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="237" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T237" t="s">
+        <v>282</v>
+      </c>
+      <c r="U237" t="s">
+        <v>283</v>
+      </c>
+      <c r="V237" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="238" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S238" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="240" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S240" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="241" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S241" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="242" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S242" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="244" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S244" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="245" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S245" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="246" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S246" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="247" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T247" t="s">
+        <v>282</v>
+      </c>
+      <c r="U247" t="s">
+        <v>283</v>
+      </c>
+      <c r="V247" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="248" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S248" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="250" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S250" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="251" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S251" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="252" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S252" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="254" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S254" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="255" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S255" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="256" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S256" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="257" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T257" t="s">
+        <v>282</v>
+      </c>
+      <c r="U257" t="s">
+        <v>283</v>
+      </c>
+      <c r="V257" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="258" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S258" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="260" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S260" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="261" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S261" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="262" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S262" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="264" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S264" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="265" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S265" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="266" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S266" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="267" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T267" t="s">
+        <v>282</v>
+      </c>
+      <c r="U267" t="s">
+        <v>283</v>
+      </c>
+      <c r="V267" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="268" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S268" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="270" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S270" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="271" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S271" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="272" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S272" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="274" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S274" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="275" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S275" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="276" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S276" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="277" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T277" t="s">
+        <v>282</v>
+      </c>
+      <c r="U277" t="s">
+        <v>283</v>
+      </c>
+      <c r="V277" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="278" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S278" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="280" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S280" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="281" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S281" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="282" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S282" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="284" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S284" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="285" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S285" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="286" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S286" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="287" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T287" t="s">
+        <v>282</v>
+      </c>
+      <c r="U287" t="s">
+        <v>283</v>
+      </c>
+      <c r="V287" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="288" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S288" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="290" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S290" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="291" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S291" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="292" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S292" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="294" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S294" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="295" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S295" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="296" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S296" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="297" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T297" t="s">
+        <v>282</v>
+      </c>
+      <c r="U297" t="s">
+        <v>283</v>
+      </c>
+      <c r="V297" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="298" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S298" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="300" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S300" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="301" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S301" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="302" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S302" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="305" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S305" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="307" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S307" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="309" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S309" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="310" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S310" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="311" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S311" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="312" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S312" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="313" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T313" t="s">
+        <v>282</v>
+      </c>
+      <c r="U313" t="s">
+        <v>283</v>
+      </c>
+      <c r="V313" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="314" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S314" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="316" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S316" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="317" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S317" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="318" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S318" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="320" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S320" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="321" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S321" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="322" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S322" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="323" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T323" t="s">
+        <v>282</v>
+      </c>
+      <c r="U323" t="s">
+        <v>283</v>
+      </c>
+      <c r="V323" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="324" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S324" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="326" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S326" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="327" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S327" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="328" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S328" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="330" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S330" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="331" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S331" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="332" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S332" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="333" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T333" t="s">
+        <v>282</v>
+      </c>
+      <c r="U333" t="s">
+        <v>283</v>
+      </c>
+      <c r="V333" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="334" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S334" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="336" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S336" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="337" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S337" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="338" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S338" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="340" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S340" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="341" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S341" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="342" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S342" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="343" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T343" t="s">
+        <v>282</v>
+      </c>
+      <c r="U343" t="s">
+        <v>283</v>
+      </c>
+      <c r="V343" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="344" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S344" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="346" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S346" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="347" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S347" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="348" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S348" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="350" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S350" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="351" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S351" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="352" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S352" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="353" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T353" t="s">
+        <v>282</v>
+      </c>
+      <c r="U353" t="s">
+        <v>283</v>
+      </c>
+      <c r="V353" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="354" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S354" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="356" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S356" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="357" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S357" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="358" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S358" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="360" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S360" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="361" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S361" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="362" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S362" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="363" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T363" t="s">
+        <v>282</v>
+      </c>
+      <c r="U363" t="s">
+        <v>283</v>
+      </c>
+      <c r="V363" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="364" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S364" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="366" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S366" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="367" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S367" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="368" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S368" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="370" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S370" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="371" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S371" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="372" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S372" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="373" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T373" t="s">
+        <v>282</v>
+      </c>
+      <c r="U373" t="s">
+        <v>283</v>
+      </c>
+      <c r="V373" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="374" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S374" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="376" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S376" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="377" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S377" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="378" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S378" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="380" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S380" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="381" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S381" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="382" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S382" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="383" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S383" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="384" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T384" t="s">
+        <v>282</v>
+      </c>
+      <c r="U384" t="s">
+        <v>283</v>
+      </c>
+      <c r="V384" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="385" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S385" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="387" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S387" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="388" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S388" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="389" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S389" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="391" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S391" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="392" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S392" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="393" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S393" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="394" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T394" t="s">
+        <v>282</v>
+      </c>
+      <c r="U394" t="s">
+        <v>283</v>
+      </c>
+      <c r="V394" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="395" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S395" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="397" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S397" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="398" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S398" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="399" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S399" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="401" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S401" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="402" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S402" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="403" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S403" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="404" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T404" t="s">
+        <v>282</v>
+      </c>
+      <c r="U404" t="s">
+        <v>283</v>
+      </c>
+      <c r="V404" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="405" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S405" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="407" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S407" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="408" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S408" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="409" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S409" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="411" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S411" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="412" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S412" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="413" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S413" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="414" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T414" t="s">
+        <v>282</v>
+      </c>
+      <c r="U414" t="s">
+        <v>283</v>
+      </c>
+      <c r="V414" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="415" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S415" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="417" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S417" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="418" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S418" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="419" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S419" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="421" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S421" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="422" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S422" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="423" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S423" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="424" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T424" t="s">
+        <v>282</v>
+      </c>
+      <c r="U424" t="s">
+        <v>283</v>
+      </c>
+      <c r="V424" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="425" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S425" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="427" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S427" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="428" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S428" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="429" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S429" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="431" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S431" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="432" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S432" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="433" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S433" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="434" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T434" t="s">
+        <v>282</v>
+      </c>
+      <c r="U434" t="s">
+        <v>283</v>
+      </c>
+      <c r="V434" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="435" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S435" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="437" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S437" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="438" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S438" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="439" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S439" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="441" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S441" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="442" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S442" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="443" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S443" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="444" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T444" t="s">
+        <v>282</v>
+      </c>
+      <c r="U444" t="s">
+        <v>283</v>
+      </c>
+      <c r="V444" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="445" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S445" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="447" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S447" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="448" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S448" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="449" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S449" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="451" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S451" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="452" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S452" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="453" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S453" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="454" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S454" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="455" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T455" t="s">
+        <v>282</v>
+      </c>
+      <c r="U455" t="s">
+        <v>283</v>
+      </c>
+      <c r="V455" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="456" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S456" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="458" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S458" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="459" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S459" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="460" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S460" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="462" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S462" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="463" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S463" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="464" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S464" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="465" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T465" t="s">
+        <v>282</v>
+      </c>
+      <c r="U465" t="s">
+        <v>283</v>
+      </c>
+      <c r="V465" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="466" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S466" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="468" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S468" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="469" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S469" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="470" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S470" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="472" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S472" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="473" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S473" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="474" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S474" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="475" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T475" t="s">
+        <v>282</v>
+      </c>
+      <c r="U475" t="s">
+        <v>283</v>
+      </c>
+      <c r="V475" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="476" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S476" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="478" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S478" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="479" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S479" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="480" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S480" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="482" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S482" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="483" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S483" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="484" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S484" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="485" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T485" t="s">
+        <v>282</v>
+      </c>
+      <c r="U485" t="s">
+        <v>283</v>
+      </c>
+      <c r="V485" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="486" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S486" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="488" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S488" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="489" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S489" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="490" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S490" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="492" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S492" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="493" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S493" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="494" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S494" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="495" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T495" t="s">
+        <v>282</v>
+      </c>
+      <c r="U495" t="s">
+        <v>283</v>
+      </c>
+      <c r="V495" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="496" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S496" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="498" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S498" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="499" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S499" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="500" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S500" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="502" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S502" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="503" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S503" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="504" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S504" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="505" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T505" t="s">
+        <v>282</v>
+      </c>
+      <c r="U505" t="s">
+        <v>283</v>
+      </c>
+      <c r="V505" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="506" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S506" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="508" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S508" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="509" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S509" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="510" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S510" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="512" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S512" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="513" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S513" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="514" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S514" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="515" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="T515" t="s">
+        <v>282</v>
+      </c>
+      <c r="U515" t="s">
+        <v>283</v>
+      </c>
+      <c r="V515" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="516" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S516" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="518" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S518" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="519" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S519" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="520" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S520" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="522" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S522" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
